--- a/东方夜雀食堂数据整理.xlsx
+++ b/东方夜雀食堂数据整理.xlsx
@@ -6321,9 +6321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9265,30 +9265,22 @@
         <v>375</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="4">
-        <v>2</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="4">
-        <v>3</v>
-      </c>
+      <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="4">
-        <v>4</v>
-      </c>
+      <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="4">
-        <v>5</v>
-      </c>
+      <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>{'name':'eytz', 'chinese':'二岩猯藏', 'info': '','tag': '家常，肉，水产，下酒，传说，果味，和风，流行喜爱', 'noTag': '辣，灼热', 'drinks': '高酒精，可加热，烧酒，古典', 'money': '1000 - 1200', 'recommendCooks': '白雪，华光玉煎包，大江户船祭', 'recommendDrinks': '', 'rewardCard': {'name':'「」', 'effect': ''}, 'punishCard': {'name':'「」', 'effect': ''}, 'friendship': [{'name':'2', 'condition':'', 'task': ''}, {'name':'3', 'condition':'', 'task': ''}, {'name':'4', 'condition':'', 'task': ''}, {'name':'5', 'condition':'', 'task': ''}], 'location':'妖怪兽道，人间之里，博丽神社，命莲寺，神灵庙'},</v>
+        <v>{'name':'eytz', 'chinese':'二岩猯藏', 'info': '','tag': '家常，肉，水产，下酒，传说，果味，和风，流行喜爱', 'noTag': '辣，灼热', 'drinks': '高酒精，可加热，烧酒，古典', 'money': '1000 - 1200', 'recommendCooks': '白雪，华光玉煎包，大江户船祭', 'recommendDrinks': '', 'rewardCard': {'name':'「」', 'effect': ''}, 'punishCard': {'name':'「」', 'effect': ''}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，命莲寺，神灵庙'},</v>
       </c>
       <c r="AB35" s="6" t="str">
         <f t="shared" si="4"/>

--- a/东方夜雀食堂数据整理.xlsx
+++ b/东方夜雀食堂数据整理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45DE625-6D21-4868-BF97-D6888BD86272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3375" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,12 @@
     <sheet name="饮料" sheetId="3" r:id="rId3"/>
     <sheet name="原料" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1886">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7157,12 +7158,23 @@
   <si>
     <t>力量汤*葡萄+辣椒，水煮鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「饕餮的饕餮之宴」</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有尤魔意外的客人都只会点最贵的食物与酒水，且这些订单不消耗预算，持续30秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鼠裘</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7338,9 +7350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7378,9 +7390,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7415,7 +7427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7450,7 +7462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7623,12 +7635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11759,23 +11771,25 @@
     </row>
     <row r="48" spans="1:28" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E48" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="F48" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>546</v>
+        <v>253</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>329</v>
@@ -11786,7 +11800,7 @@
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>547</v>
+        <v>1880</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -11803,46 +11817,50 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="6" t="str">
-        <f>CONCATENATE("{'name':'",C48,"', 'chinese':'",A48,"', 'info': '','tag': '",D48,"', 'noTag': '",E48,"', 'drinks': '",F48,"', 'money': '",G48,"', 'recommendCooks': '",L48,"', 'recommendDrinks': '",M48,"',",IF(H48="", " 'rewardCard': {}, 'punishCard': {},", " 'rewardCard': {'name':'"&amp;H48&amp;"', 'effect': '"&amp;I48&amp;"'}, 'punishCard': {'name':'"&amp;J48&amp;"', 'effect': '"&amp;K48&amp;"'},"),IF(N48="", " 'friendship': [],", " 'friendship': [{'name':'"&amp;N48&amp;"', 'condition':'"&amp;O48&amp;"', 'task': '"&amp;P48&amp;"'}, {'name':'"&amp;Q48&amp;"', 'condition':'"&amp;R48&amp;"', 'task': '"&amp;S48&amp;"'}, {'name':'"&amp;T48&amp;"', 'condition':'"&amp;U48&amp;"', 'task': '"&amp;V48&amp;"'}, {'name':'"&amp;W48&amp;"', 'condition':'"&amp;X48&amp;"', 'task': '"&amp;Y48&amp;"'}],")," 'location':'",B48,"'},")</f>
-        <v>{'name':'ttym', 'chinese':'饕餮尤魔', 'info': '','tag': '肉，饱腹，大份，高级，传说，鲜，生，不可思议，力量涌现', 'noTag': '', 'drinks': '高酒精，烧酒，直饮，辛', 'money': '9999 - 9999', 'recommendCooks': '惠灵顿牛排，大江户船祭', 'recommendDrinks': '', 'rewardCard': {'name':'「」', 'effect': ''}, 'punishCard': {'name':'「」', 'effect': ''}, 'friendship': [], 'location':'妖怪兽道，博丽神社，魔法森林，红魔馆，迷途竹林，妖怪之山，旧地狱，地灵殿，命莲寺，神灵庙，太阳花田，辉针城'},</v>
+        <f t="shared" si="0"/>
+        <v>{'name':'hpym', 'chinese':'魂魄妖梦', 'info': '','tag': '家常，清淡，鲜，力量涌现', 'noTag': '咸，重油，猎奇', 'drinks': '无酒精，可加热，水果', 'money': '300 - 400', 'recommendCooks': '力量汤*海苔+露水，饭团*海苔+露水', 'recommendDrinks': '', 'rewardCard': {'name':'「」', 'effect': ''}, 'punishCard': {'name':'「」', 'effect': ''}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，迷途竹林'},</v>
       </c>
       <c r="AB48" s="6" t="str">
-        <f>CONCATENATE("{'name':'",C48,"', 'chinese':'",A48,"', 'recommendCooks': '",L48,"', 'recommendDrinks': '",M48,"'},")</f>
-        <v>{'name':'ttym', 'chinese':'饕餮尤魔', 'recommendCooks': '惠灵顿牛排，大江户船祭', 'recommendDrinks': ''},</v>
+        <f t="shared" si="4"/>
+        <v>{'name':'hpym', 'chinese':'魂魄妖梦', 'recommendCooks': '力量汤*海苔+露水，饭团*海苔+露水', 'recommendDrinks': ''},</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>253</v>
+        <v>536</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>537</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>538</v>
+      </c>
       <c r="J49" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K49" s="4"/>
+        <v>539</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L49" s="4" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -11860,51 +11878,49 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>{'name':'hpym', 'chinese':'魂魄妖梦', 'info': '','tag': '家常，清淡，鲜，力量涌现', 'noTag': '咸，重油，猎奇', 'drinks': '无酒精，可加热，水果', 'money': '300 - 400', 'recommendCooks': '力量汤*海苔+露水，饭团*海苔+露水', 'recommendDrinks': '', 'rewardCard': {'name':'「」', 'effect': ''}, 'punishCard': {'name':'「」', 'effect': ''}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，迷途竹林'},</v>
+        <v>{'name':'xxsyyz', 'chinese':'西行寺幽幽子', 'info': '','tag': '传说，肉，高级，饱腹，中华，水产，和风，大份', 'noTag': '素，清淡，小巧', 'drinks': '可加冰，高酒精，鸡尾酒', 'money': '1500 - 2000', 'recommendCooks': '白雪*南瓜+南瓜，华光玉煎包*南瓜', 'recommendDrinks': '', 'rewardCard': {'name':'「食物瞬间消失术」', 'effect': '接下来直到营业结束为止,客人会瞬间吃下所有的料理。\n再次触发时此符卡转化为\n「墨染浮櫻化醉蝶」\n幽幽子释放1/3/5/8(随使用次数提升)只蝴蝶飞向保温箱,每只蝴蝶吞噬保温箱中存储的一个料理,转化为等同于4倍料理价格的金钱(享受小费倍率加成)。'}, 'punishCard': {'name':'「加料加量不加价」', 'effect': '接下来直到营业结束为止,所有的料理不加满5个档位的料,都会收到差评。'}, 'friendship': [], 'location':'博丽神社，红魔馆，迷途竹林，神灵庙'},</v>
       </c>
       <c r="AB49" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>{'name':'hpym', 'chinese':'魂魄妖梦', 'recommendCooks': '力量汤*海苔+露水，饭团*海苔+露水', 'recommendDrinks': ''},</v>
+        <v>{'name':'xxsyyz', 'chinese':'西行寺幽幽子', 'recommendCooks': '白雪*南瓜+南瓜，华光玉煎包*南瓜', 'recommendDrinks': ''},</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>534</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>537</v>
+        <v>1883</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>538</v>
+        <v>1884</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>540</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
-        <v>1872</v>
-      </c>
-      <c r="M50" s="4"/>
+        <v>547</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>1885</v>
+      </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -11919,50 +11935,42 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name':'xxsyyz', 'chinese':'西行寺幽幽子', 'info': '','tag': '传说，肉，高级，饱腹，中华，水产，和风，大份', 'noTag': '素，清淡，小巧', 'drinks': '可加冰，高酒精，鸡尾酒', 'money': '1500 - 2000', 'recommendCooks': '白雪*南瓜+南瓜，华光玉煎包*南瓜', 'recommendDrinks': '', 'rewardCard': {'name':'「食物瞬间消失术」', 'effect': '接下来直到营业结束为止,客人会瞬间吃下所有的料理。\n再次触发时此符卡转化为\n「墨染浮櫻化醉蝶」\n幽幽子释放1/3/5/8(随使用次数提升)只蝴蝶飞向保温箱,每只蝴蝶吞噬保温箱中存储的一个料理,转化为等同于4倍料理价格的金钱(享受小费倍率加成)。'}, 'punishCard': {'name':'「加料加量不加价」', 'effect': '接下来直到营业结束为止,所有的料理不加满5个档位的料,都会收到差评。'}, 'friendship': [], 'location':'博丽神社，红魔馆，迷途竹林，神灵庙'},</v>
+        <f>CONCATENATE("{'name':'",C50,"', 'chinese':'",A50,"', 'info': '','tag': '",D50,"', 'noTag': '",E50,"', 'drinks': '",F50,"', 'money': '",G50,"', 'recommendCooks': '",L50,"', 'recommendDrinks': '",M50,"',",IF(H50="", " 'rewardCard': {}, 'punishCard': {},", " 'rewardCard': {'name':'"&amp;H50&amp;"', 'effect': '"&amp;I50&amp;"'}, 'punishCard': {'name':'"&amp;J50&amp;"', 'effect': '"&amp;K50&amp;"'},"),IF(N50="", " 'friendship': [],", " 'friendship': [{'name':'"&amp;N50&amp;"', 'condition':'"&amp;O50&amp;"', 'task': '"&amp;P50&amp;"'}, {'name':'"&amp;Q50&amp;"', 'condition':'"&amp;R50&amp;"', 'task': '"&amp;S50&amp;"'}, {'name':'"&amp;T50&amp;"', 'condition':'"&amp;U50&amp;"', 'task': '"&amp;V50&amp;"'}, {'name':'"&amp;W50&amp;"', 'condition':'"&amp;X50&amp;"', 'task': '"&amp;Y50&amp;"'}],")," 'location':'",B50,"'},")</f>
+        <v>{'name':'ttym', 'chinese':'饕餮尤魔', 'info': '','tag': '肉，饱腹，大份，高级，传说，鲜，生，不可思议，力量涌现', 'noTag': '', 'drinks': '高酒精，烧酒，直饮，辛', 'money': '9999 - 9999', 'recommendCooks': '惠灵顿牛排，大江户船祭', 'recommendDrinks': '火鼠裘', 'rewardCard': {'name':'「饕餮的饕餮之宴」', 'effect': '所有尤魔意外的客人都只会点最贵的食物与酒水，且这些订单不消耗预算，持续30秒。'}, 'punishCard': {'name':'「」', 'effect': ''}, 'friendship': [], 'location':'妖怪兽道，博丽神社，魔法森林，红魔馆，迷途竹林，妖怪之山，旧地狱，地灵殿，命莲寺，神灵庙，太阳花田，辉针城'},</v>
       </c>
       <c r="AB50" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>{'name':'xxsyyz', 'chinese':'西行寺幽幽子', 'recommendCooks': '白雪*南瓜+南瓜，华光玉煎包*南瓜', 'recommendDrinks': ''},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>CONCATENATE("{'name':'",C50,"', 'chinese':'",A50,"', 'recommendCooks': '",L50,"', 'recommendDrinks': '",M50,"'},")</f>
+        <v>{'name':'ttym', 'chinese':'饕餮尤魔', 'recommendCooks': '惠灵顿牛排，大江户船祭', 'recommendDrinks': '火鼠裘'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>548</v>
+        <v>362</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>549</v>
+        <v>363</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>550</v>
+        <v>364</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>551</v>
+        <v>365</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>551</v>
+        <v>366</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>552</v>
+        <v>367</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>557</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>558</v>
+        <v>1879</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -11979,42 +11987,50 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name':'byz', 'chinese':'八云紫', 'info': '','tag': '家常，高级，猎奇，凉爽，传说，适合拍照，汤羹', 'noTag': '家常，高级，猎奇，凉爽，传说，适合拍照，汤羹', 'drinks': '古典，中酒精，高酒精，烧酒', 'money': '4000 - 6000', 'recommendCooks': '大江户船祭', 'recommendDrinks': '', 'rewardCard': {'name':'「人与妖的梦乡」', 'effect': '在当日结束前触发时,冻结所有剩余时间大于44秒的Buff时间,使之不再减少,直至当日结束。\n再次触发或在当日结束后触发，所有剩余时间大于44秒的Buff时间增加当前剩余时长的10%(每种类型的Buff至多通过此符卡增加17秒)。'}, 'punishCard': {'name':'「现与隐的境界」', 'effect': '在场上开启数个会变换位置的隙间,若接近隙间则会被吸入其中,然后随机传送到其他隙间处,同时托盘内的酒水会消失。隙间持续30秒。'}, 'friendship': [], 'location':'妖怪兽道，人间之里，魔法森林，红魔馆，迷途竹林，妖怪之山，旧地狱，地灵殿，命莲寺，神灵庙，太阳花田，辉针城，月都，魔界'},</v>
+        <f>CONCATENATE("{'name':'",C51,"', 'chinese':'",A51,"', 'info': '','tag': '",D51,"', 'noTag': '",E51,"', 'drinks': '",F51,"', 'money': '",G51,"', 'recommendCooks': '",L51,"', 'recommendDrinks': '",M51,"',",IF(H51="", " 'rewardCard': {}, 'punishCard': {},", " 'rewardCard': {'name':'"&amp;H51&amp;"', 'effect': '"&amp;I51&amp;"'}, 'punishCard': {'name':'"&amp;J51&amp;"', 'effect': '"&amp;K51&amp;"'},"),IF(N51="", " 'friendship': [],", " 'friendship': [{'name':'"&amp;N51&amp;"', 'condition':'"&amp;O51&amp;"', 'task': '"&amp;P51&amp;"'}, {'name':'"&amp;Q51&amp;"', 'condition':'"&amp;R51&amp;"', 'task': '"&amp;S51&amp;"'}, {'name':'"&amp;T51&amp;"', 'condition':'"&amp;U51&amp;"', 'task': '"&amp;V51&amp;"'}, {'name':'"&amp;W51&amp;"', 'condition':'"&amp;X51&amp;"', 'task': '"&amp;Y51&amp;"'}],")," 'location':'",B51,"'},")</f>
+        <v>{'name':'eytz', 'chinese':'二岩猯藏', 'info': '','tag': '家常，肉，水产，下酒，传说，果味，和风，流行喜爱', 'noTag': '辣，灼热', 'drinks': '高酒精，可加热，烧酒，古典', 'money': '1000 - 1200', 'recommendCooks': '白雪，华光玉煎包', 'recommendDrinks': '', 'rewardCard': {}, 'punishCard': {}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，命莲寺，神灵庙'},</v>
       </c>
       <c r="AB51" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>{'name':'byz', 'chinese':'八云紫', 'recommendCooks': '大江户船祭', 'recommendDrinks': ''},</v>
+        <f>CONCATENATE("{'name':'",C51,"', 'chinese':'",A51,"', 'recommendCooks': '",L51,"', 'recommendDrinks': '",M51,"'},")</f>
+        <v>{'name':'eytz', 'chinese':'二岩猯藏', 'recommendCooks': '白雪，华光玉煎包', 'recommendDrinks': ''},</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>548</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>159</v>
+        <v>549</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>160</v>
+        <v>550</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>161</v>
+        <v>551</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>162</v>
+        <v>551</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+        <v>553</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="L52" s="4" t="s">
-        <v>165</v>
+        <v>558</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -12031,40 +12047,42 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="6" t="str">
-        <f>CONCATENATE("{'name':'",C52,"', 'chinese':'",A52,"', 'info': '','tag': '",D52,"', 'noTag': '",E52,"', 'drinks': '",F52,"', 'money': '",G52,"', 'recommendCooks': '",L52,"', 'recommendDrinks': '",M52,"',",IF(H52="", " 'rewardCard': {}, 'punishCard': {},", " 'rewardCard': {'name':'"&amp;H52&amp;"', 'effect': '"&amp;I52&amp;"'}, 'punishCard': {'name':'"&amp;J52&amp;"', 'effect': '"&amp;K52&amp;"'},"),IF(N52="", " 'friendship': [],", " 'friendship': [{'name':'"&amp;N52&amp;"', 'condition':'"&amp;O52&amp;"', 'task': '"&amp;P52&amp;"'}, {'name':'"&amp;Q52&amp;"', 'condition':'"&amp;R52&amp;"', 'task': '"&amp;S52&amp;"'}, {'name':'"&amp;T52&amp;"', 'condition':'"&amp;U52&amp;"', 'task': '"&amp;V52&amp;"'}, {'name':'"&amp;W52&amp;"', 'condition':'"&amp;X52&amp;"', 'task': '"&amp;Y52&amp;"'}],")," 'location':'",B52,"'},")</f>
-        <v>{'name':'lmly', 'chinese':'蕾米莉亚', 'info': '','tag': '西式，甜，生，高级，传说，流行喜爱', 'noTag': '酸，辣，咸，实惠', 'drinks': '甘，西洋酒，古典，水果，高酒精', 'money': '4950 - 5000', 'recommendCooks': '大江户船祭，猩红恶魔蛋糕', 'recommendDrinks': '', 'rewardCard': {}, 'punishCard': {}, 'friendship': [], 'location':'博丽神社，红魔馆'},</v>
+        <f t="shared" si="0"/>
+        <v>{'name':'byz', 'chinese':'八云紫', 'info': '','tag': '家常，高级，猎奇，凉爽，传说，适合拍照，汤羹', 'noTag': '家常，高级，猎奇，凉爽，传说，适合拍照，汤羹', 'drinks': '古典，中酒精，高酒精，烧酒', 'money': '4000 - 6000', 'recommendCooks': '大江户船祭', 'recommendDrinks': '', 'rewardCard': {'name':'「人与妖的梦乡」', 'effect': '在当日结束前触发时,冻结所有剩余时间大于44秒的Buff时间,使之不再减少,直至当日结束。\n再次触发或在当日结束后触发，所有剩余时间大于44秒的Buff时间增加当前剩余时长的10%(每种类型的Buff至多通过此符卡增加17秒)。'}, 'punishCard': {'name':'「现与隐的境界」', 'effect': '在场上开启数个会变换位置的隙间,若接近隙间则会被吸入其中,然后随机传送到其他隙间处,同时托盘内的酒水会消失。隙间持续30秒。'}, 'friendship': [], 'location':'妖怪兽道，人间之里，魔法森林，红魔馆，迷途竹林，妖怪之山，旧地狱，地灵殿，命莲寺，神灵庙，太阳花田，辉针城，月都，魔界'},</v>
       </c>
       <c r="AB52" s="6" t="str">
-        <f>CONCATENATE("{'name':'",C52,"', 'chinese':'",A52,"', 'recommendCooks': '",L52,"', 'recommendDrinks': '",M52,"'},")</f>
-        <v>{'name':'lmly', 'chinese':'蕾米莉亚', 'recommendCooks': '大江户船祭，猩红恶魔蛋糕', 'recommendDrinks': ''},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>{'name':'byz', 'chinese':'八云紫', 'recommendCooks': '大江户船祭', 'recommendDrinks': ''},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1367</v>
+        <v>159</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="F53" s="4" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -12082,41 +12100,39 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="6" t="str">
         <f>CONCATENATE("{'name':'",C53,"', 'chinese':'",A53,"', 'info': '','tag': '",D53,"', 'noTag': '",E53,"', 'drinks': '",F53,"', 'money': '",G53,"', 'recommendCooks': '",L53,"', 'recommendDrinks': '",M53,"',",IF(H53="", " 'rewardCard': {}, 'punishCard': {},", " 'rewardCard': {'name':'"&amp;H53&amp;"', 'effect': '"&amp;I53&amp;"'}, 'punishCard': {'name':'"&amp;J53&amp;"', 'effect': '"&amp;K53&amp;"'},"),IF(N53="", " 'friendship': [],", " 'friendship': [{'name':'"&amp;N53&amp;"', 'condition':'"&amp;O53&amp;"', 'task': '"&amp;P53&amp;"'}, {'name':'"&amp;Q53&amp;"', 'condition':'"&amp;R53&amp;"', 'task': '"&amp;S53&amp;"'}, {'name':'"&amp;T53&amp;"', 'condition':'"&amp;U53&amp;"', 'task': '"&amp;V53&amp;"'}, {'name':'"&amp;W53&amp;"', 'condition':'"&amp;X53&amp;"', 'task': '"&amp;Y53&amp;"'}],")," 'location':'",B53,"'},")</f>
-        <v>{'name':'gmdl', 'chinese':'古明地恋', 'info': '','tag': '甜，咸，生，梦幻，猎奇，不可思议，流行厌恶', 'noTag': '', 'drinks': '高酒精，烧酒，气泡，苦', 'money': '800 - 1200', 'recommendCooks': '毛玉三色冰激凌*蝉蜕，拟尻子玉', 'recommendDrinks': '', 'rewardCard': {}, 'punishCard': {}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，魔法森林，红魔馆，迷途竹林，妖怪之山，旧地狱，地灵殿，命莲寺，神灵庙，太阳花田，辉针城'},</v>
+        <v>{'name':'lmly', 'chinese':'蕾米莉亚', 'info': '','tag': '西式，甜，生，高级，传说，流行喜爱', 'noTag': '酸，辣，咸，实惠', 'drinks': '甘，西洋酒，古典，水果，高酒精', 'money': '4950 - 5000', 'recommendCooks': '大江户船祭，猩红恶魔蛋糕', 'recommendDrinks': '', 'rewardCard': {}, 'punishCard': {}, 'friendship': [], 'location':'博丽神社，红魔馆'},</v>
       </c>
       <c r="AB53" s="6" t="str">
         <f>CONCATENATE("{'name':'",C53,"', 'chinese':'",A53,"', 'recommendCooks': '",L53,"', 'recommendDrinks': '",M53,"'},")</f>
-        <v>{'name':'gmdl', 'chinese':'古明地恋', 'recommendCooks': '毛玉三色冰激凌*蝉蜕，拟尻子玉', 'recommendDrinks': ''},</v>
+        <v>{'name':'lmly', 'chinese':'蕾米莉亚', 'recommendCooks': '大江户船祭，猩红恶魔蛋糕', 'recommendDrinks': ''},</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>363</v>
+        <v>1367</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>1879</v>
+        <v>330</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -12134,11 +12150,11 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="6" t="str">
         <f>CONCATENATE("{'name':'",C54,"', 'chinese':'",A54,"', 'info': '','tag': '",D54,"', 'noTag': '",E54,"', 'drinks': '",F54,"', 'money': '",G54,"', 'recommendCooks': '",L54,"', 'recommendDrinks': '",M54,"',",IF(H54="", " 'rewardCard': {}, 'punishCard': {},", " 'rewardCard': {'name':'"&amp;H54&amp;"', 'effect': '"&amp;I54&amp;"'}, 'punishCard': {'name':'"&amp;J54&amp;"', 'effect': '"&amp;K54&amp;"'},"),IF(N54="", " 'friendship': [],", " 'friendship': [{'name':'"&amp;N54&amp;"', 'condition':'"&amp;O54&amp;"', 'task': '"&amp;P54&amp;"'}, {'name':'"&amp;Q54&amp;"', 'condition':'"&amp;R54&amp;"', 'task': '"&amp;S54&amp;"'}, {'name':'"&amp;T54&amp;"', 'condition':'"&amp;U54&amp;"', 'task': '"&amp;V54&amp;"'}, {'name':'"&amp;W54&amp;"', 'condition':'"&amp;X54&amp;"', 'task': '"&amp;Y54&amp;"'}],")," 'location':'",B54,"'},")</f>
-        <v>{'name':'eytz', 'chinese':'二岩猯藏', 'info': '','tag': '家常，肉，水产，下酒，传说，果味，和风，流行喜爱', 'noTag': '辣，灼热', 'drinks': '高酒精，可加热，烧酒，古典', 'money': '1000 - 1200', 'recommendCooks': '白雪，华光玉煎包', 'recommendDrinks': '', 'rewardCard': {}, 'punishCard': {}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，命莲寺，神灵庙'},</v>
+        <v>{'name':'gmdl', 'chinese':'古明地恋', 'info': '','tag': '甜，咸，生，梦幻，猎奇，不可思议，流行厌恶', 'noTag': '', 'drinks': '高酒精，烧酒，气泡，苦', 'money': '800 - 1200', 'recommendCooks': '毛玉三色冰激凌*蝉蜕，拟尻子玉', 'recommendDrinks': '', 'rewardCard': {}, 'punishCard': {}, 'friendship': [], 'location':'妖怪兽道，人间之里，博丽神社，魔法森林，红魔馆，迷途竹林，妖怪之山，旧地狱，地灵殿，命莲寺，神灵庙，太阳花田，辉针城'},</v>
       </c>
       <c r="AB54" s="6" t="str">
         <f>CONCATENATE("{'name':'",C54,"', 'chinese':'",A54,"', 'recommendCooks': '",L54,"', 'recommendDrinks': '",M54,"'},")</f>
-        <v>{'name':'eytz', 'chinese':'二岩猯藏', 'recommendCooks': '白雪，华光玉煎包', 'recommendDrinks': ''},</v>
+        <v>{'name':'gmdl', 'chinese':'古明地恋', 'recommendCooks': '毛玉三色冰激凌*蝉蜕，拟尻子玉', 'recommendDrinks': ''},</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12437,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18322,11 +18338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19331,7 +19347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
